--- a/CaseAndFatalityDemographicsData/2022-03-04.xlsx
+++ b/CaseAndFatalityDemographicsData/2022-03-04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\Demographics Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F6E7D-F11D-46D8-9A6A-D78E41DDCDC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E469E-DC53-4C4C-AD40-6875924BC51E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="-2160" windowWidth="21600" windowHeight="18225" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="30960" windowHeight="15840" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by Age" sheetId="10" r:id="rId1"/>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -356,9 +356,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -369,6 +366,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,10 +910,10 @@
         <v>1748</v>
       </c>
       <c r="K9" s="3">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="L9" s="3">
-        <v>6674</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,11 +1148,11 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>10779</v>
+        <v>10780</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>31314</v>
+        <v>31315</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,11 +1793,11 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="3"/>
-        <v>22837</v>
+        <v>22838</v>
       </c>
       <c r="L34" s="15">
         <f t="shared" si="3"/>
-        <v>80156</v>
+        <v>80157</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1947,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="C9" s="3">
         <v>3943</v>
@@ -1954,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>6674</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,7 +2050,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B5:B14)</f>
-        <v>13191</v>
+        <v>13192</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ref="C15:E15" si="0">SUM(C5:C14)</f>
@@ -2060,7 +2062,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>31314</v>
+        <v>31315</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,7 +2351,7 @@
       </c>
       <c r="B34" s="15">
         <f>B32+B29+B15</f>
-        <v>33594</v>
+        <v>33595</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" ref="C34:E34" si="3">C32+C29+C15</f>
@@ -2361,7 +2363,7 @@
       </c>
       <c r="E34" s="15">
         <f t="shared" si="3"/>
-        <v>80156</v>
+        <v>80157</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2570,13 +2572,13 @@
         <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>6674</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,15 +2733,15 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>11892</v>
+        <v>11893</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>31314</v>
+        <f>SUM(H5:H14)</f>
+        <v>31315</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,7 +3196,7 @@
       </c>
       <c r="F34" s="15">
         <f t="shared" si="3"/>
-        <v>35370</v>
+        <v>35371</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="3"/>
@@ -3202,7 +3204,7 @@
       </c>
       <c r="H34" s="15">
         <f t="shared" si="3"/>
-        <v>80156</v>
+        <v>80157</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3319,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>6</v>
       </c>
       <c r="C5" s="3">
@@ -3358,7 +3360,7 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>72</v>
       </c>
       <c r="C6" s="3">
@@ -3399,7 +3401,7 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>162</v>
       </c>
       <c r="C7" s="3">
@@ -3440,7 +3442,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>628</v>
       </c>
       <c r="C8" s="3">
@@ -3481,7 +3483,7 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>1543</v>
       </c>
       <c r="C9" s="3">
@@ -3522,7 +3524,7 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1385</v>
       </c>
       <c r="C10" s="3">
@@ -3563,7 +3565,7 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>671</v>
       </c>
       <c r="C11" s="3">
@@ -3604,7 +3606,7 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>725</v>
       </c>
       <c r="C12" s="3">
@@ -3645,7 +3647,7 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>1288</v>
       </c>
       <c r="C13" s="3">
@@ -3686,7 +3688,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>2403</v>
       </c>
       <c r="C14" s="3">
@@ -3806,13 +3808,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>1185</v>
       </c>
       <c r="C18" s="3">
@@ -3853,7 +3855,7 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>615</v>
       </c>
       <c r="C19" s="3">
@@ -3894,7 +3896,7 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>404</v>
       </c>
       <c r="C20" s="3">
@@ -3935,7 +3937,7 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>384</v>
       </c>
       <c r="C21" s="3">
@@ -3976,7 +3978,7 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>299</v>
       </c>
       <c r="C22" s="3">
@@ -4017,7 +4019,7 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>255</v>
       </c>
       <c r="C23" s="3">
@@ -4058,7 +4060,7 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>1106</v>
       </c>
       <c r="C24" s="3">
@@ -4099,7 +4101,7 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>3311</v>
       </c>
       <c r="C25" s="3">
@@ -4140,7 +4142,7 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>2522</v>
       </c>
       <c r="C26" s="3">
@@ -4181,7 +4183,7 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1085</v>
       </c>
       <c r="C27" s="3">
@@ -4222,7 +4224,7 @@
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>630</v>
       </c>
       <c r="C28" s="3">
@@ -4263,7 +4265,7 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>2360</v>
       </c>
       <c r="C29" s="3">
@@ -4409,7 +4411,7 @@
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="21">
@@ -4453,40 +4455,40 @@
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>54</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="29">
         <v>310</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="29">
         <v>439</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="29">
         <v>544</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="29">
         <v>488</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="29">
         <v>383</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="29">
         <v>272</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="29">
         <v>141</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="29">
         <v>13</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="29">
         <v>6</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="29">
         <v>2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="30">
         <v>2652</v>
       </c>
     </row>
@@ -4558,57 +4560,57 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>38303</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:M38" si="2">SUM(C35+C31+C16)</f>
         <v>356555</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>695886</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>965445</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="26">
         <f t="shared" si="2"/>
         <v>894012</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <f t="shared" si="2"/>
         <v>768316</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>625834</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="26">
         <f t="shared" si="2"/>
         <v>418693</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="26">
         <f t="shared" si="2"/>
         <v>213838</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <f t="shared" si="2"/>
         <v>113344</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="26">
         <f t="shared" si="2"/>
         <v>16574</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="26">
         <f t="shared" si="2"/>
         <v>5106800</v>
       </c>
@@ -4725,7 +4727,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -4766,7 +4768,7 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -4807,7 +4809,7 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
       <c r="C7" s="3">
@@ -4848,7 +4850,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>18</v>
       </c>
       <c r="C8" s="3">
@@ -4889,7 +4891,7 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>56</v>
       </c>
       <c r="C9" s="3">
@@ -4930,7 +4932,7 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>51</v>
       </c>
       <c r="C10" s="3">
@@ -4971,7 +4973,7 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>44</v>
       </c>
       <c r="C11" s="3">
@@ -5012,7 +5014,7 @@
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>72</v>
       </c>
       <c r="C12" s="3">
@@ -5053,7 +5055,7 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>287</v>
       </c>
       <c r="C13" s="3">
@@ -5094,7 +5096,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>470</v>
       </c>
       <c r="C14" s="3">
@@ -5214,13 +5216,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>227</v>
       </c>
       <c r="C18" s="3">
@@ -5261,7 +5263,7 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>162</v>
       </c>
       <c r="C19" s="3">
@@ -5302,7 +5304,7 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>126</v>
       </c>
       <c r="C20" s="3">
@@ -5343,7 +5345,7 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>94</v>
       </c>
       <c r="C21" s="3">
@@ -5384,7 +5386,7 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>75</v>
       </c>
       <c r="C22" s="3">
@@ -5425,7 +5427,7 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>99</v>
       </c>
       <c r="C23" s="3">
@@ -5466,7 +5468,7 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>373</v>
       </c>
       <c r="C24" s="3">
@@ -5507,7 +5509,7 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>702</v>
       </c>
       <c r="C25" s="3">
@@ -5548,7 +5550,7 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>710</v>
       </c>
       <c r="C26" s="3">
@@ -5589,7 +5591,7 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>367</v>
       </c>
       <c r="C27" s="3">
@@ -5630,7 +5632,7 @@
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>203</v>
       </c>
       <c r="C28" s="3">
@@ -5671,7 +5673,7 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>507</v>
       </c>
       <c r="C29" s="3">
@@ -5847,44 +5849,44 @@
         <v>265600</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>10</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="30">
         <v>98</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="30">
         <v>156</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="30">
         <v>210</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="30">
         <v>213</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="30">
         <v>164</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="30">
         <v>147</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="30">
         <v>84</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="30">
         <v>25</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="30">
         <v>8</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="30">
         <v>0</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="30">
         <v>1115</v>
       </c>
     </row>
@@ -5946,57 +5948,57 @@
       <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>7319</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:L38" si="2">SUM(C35+C31+C16)</f>
         <v>75404</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>165271</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>184047</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="26">
         <f t="shared" si="2"/>
         <v>184386</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <f t="shared" si="2"/>
         <v>159998</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>131765</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="26">
         <f t="shared" si="2"/>
         <v>87159</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="26">
         <f t="shared" si="2"/>
         <v>45038</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <f t="shared" si="2"/>
         <v>24180</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="26">
         <f t="shared" si="2"/>
         <v>1538</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="26">
         <f>SUM(M35+M31+M16)</f>
         <v>1066105</v>
       </c>
@@ -6553,20 +6555,20 @@
         <v>1268477</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>878</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="30">
         <v>1031</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="30">
         <v>743</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="30">
         <v>2652</v>
       </c>
     </row>
@@ -6599,25 +6601,25 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>2307761</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:E38" si="2">SUM(C35+C31+C16)</f>
         <v>2635938</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>163101</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>5106800</v>
       </c>
@@ -7176,20 +7178,20 @@
         <v>265600</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>385</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="29">
         <v>485</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="29">
         <v>245</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="29">
         <v>1115</v>
       </c>
     </row>
@@ -7222,25 +7224,25 @@
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>444320</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:E38" si="2">SUM(C35+C31+C16)</f>
         <v>527946</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>93839</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>1066105</v>
       </c>
@@ -7622,25 +7624,25 @@
       <c r="A16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>26622</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>105277</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>434229</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>4533</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>313913</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>735925</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>1620499</v>
       </c>
     </row>
@@ -8060,29 +8062,29 @@
         <v>1268477</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>83</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="30">
         <v>256</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="30">
         <v>683</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="30">
         <v>78</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="30">
         <v>754</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="30">
         <v>798</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="30">
         <v>2652</v>
       </c>
     </row>
@@ -8130,37 +8132,37 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>118264</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:H38" si="2">SUM(C35+C31+C16)</f>
         <v>395098</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>1346239</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>120884</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="26">
         <f t="shared" si="2"/>
         <v>1123600</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <f t="shared" si="2"/>
         <v>2002715</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>5106800</v>
       </c>
@@ -8985,25 +8987,25 @@
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="29">
         <v>12</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="30">
         <v>53</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="30">
         <v>248</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="30">
         <v>27</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="30">
         <v>259</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="30">
         <v>516</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="30">
         <v>1115</v>
       </c>
     </row>
@@ -9051,37 +9053,37 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <f>SUM(B35+B31+B16)</f>
         <v>14971</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:H38" si="2">SUM(C35+C31+C16)</f>
         <v>63793</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="2"/>
         <v>231429</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="2"/>
         <v>26342</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="26">
         <f t="shared" si="2"/>
         <v>311612</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="26">
         <f t="shared" si="2"/>
         <v>417958</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <f t="shared" si="2"/>
         <v>1066105</v>
       </c>
